--- a/OUTWASH/Risultati Ottimizzazione.xlsx
+++ b/OUTWASH/Risultati Ottimizzazione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Documenti\GitHub\progettoAerodinamico\OUTWASH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57102018-0F37-4813-90F1-3B04680E59EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778773D-7AA0-47D2-AD63-A00B0E9FDA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{942A9D3C-7315-4E4F-9189-62CC279747F8}"/>
+    <workbookView xWindow="1572" yWindow="696" windowWidth="16764" windowHeight="8880" xr2:uid="{942A9D3C-7315-4E4F-9189-62CC279747F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -213,11 +213,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,33 +249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77815054-0117-4375-B038-D934A66EAA82}">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,343 +601,313 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="1">
         <v>-7.86</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="1">
         <v>-14.84</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
-        <v>-6.05</v>
-      </c>
-      <c r="D5" s="9">
-        <v>-19.940000000000001</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="1">
         <v>9.2200000000000006</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="1">
         <v>25.76</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>0.111</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="1">
         <v>-4.96</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="1">
         <v>-7.59</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>0.01</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="1">
         <v>-5.87</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="1">
         <v>-8.76</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="1">
         <v>-6.68</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="1">
         <v>-10.66</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="1">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="1">
         <v>-0.24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="1">
         <v>-2.9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="1">
         <v>-17.899999999999999</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="1">
         <v>-2.96</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="1">
         <v>-19.46</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="1">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="1">
         <v>-3.21</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>-1.96</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>-3.35</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
